--- a/resources/templates/RTK_TEMPLATE.xlsx
+++ b/resources/templates/RTK_TEMPLATE.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim\Documents\PythonProjects\ccp_reportcard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim\Documents\PythonProjects\ccp_reportcard\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9375" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9375" windowHeight="11880" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="@표지" sheetId="4" r:id="rId1"/>
     <sheet name="@기준점일람표" sheetId="1" r:id="rId2"/>
     <sheet name="@관측기록부" sheetId="2" r:id="rId3"/>
     <sheet name="@관측결과부" sheetId="3" r:id="rId4"/>
+    <sheet name="@기준점성과표" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'@관측결과부'!$A$1:$P$17</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="136">
   <si>
     <t>지적기준점 일람표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -627,12 +628,169 @@
   <si>
     <t>210mm×297mm[백상지(80g/㎡) 또는 중질지(80g/㎡)]</t>
   </si>
+  <si>
+    <t>■ 지적측량 시행규칙 [별지 제35호서식]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성과표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(앞쪽)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[  ]지적삼각보조점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도선
+등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도선명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표지재질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[■]지적도근점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소재지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지적도·임야도의 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 및 재설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌표(단위: m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경도와 위도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    년   월   일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직각좌표계 원점명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계측지계(중부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표고(단위: m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치의 약도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근경사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사연월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(지적삼각보조점 및 지적도근점표지의 망실 유무,
+사고 원인, 경계의 부합 여부 등을 적습니다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210mm×297mm(보존용지(1종) 70g/㎡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       번지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      도선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    년   월   일</t>
+  </si>
+  <si>
+    <t>[   ]지적삼각보조점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +955,34 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -823,7 +1009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1162,6 +1348,287 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1171,7 +1638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1268,9 +1735,93 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="23" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1283,15 +1834,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1301,9 +1843,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1313,73 +1921,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1397,8 +1942,92 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="23" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1683,7 +2312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -1741,10 +2370,10 @@
     </row>
     <row r="3" spans="2:17" ht="34.5" customHeight="1">
       <c r="B3" s="17"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -1778,20 +2407,20 @@
     <row r="5" spans="2:17" ht="33.75" customHeight="1">
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="19"/>
     </row>
@@ -1816,44 +2445,44 @@
     <row r="7" spans="2:17" ht="30" customHeight="1">
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="34" t="s">
+      <c r="E7" s="63"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1">
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="34" t="s">
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="64"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="19"/>
     </row>
@@ -1886,12 +2515,12 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
     </row>
@@ -1906,12 +2535,12 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
     </row>
@@ -1926,12 +2555,12 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
     </row>
@@ -1946,12 +2575,12 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="19"/>
     </row>
@@ -1976,18 +2605,18 @@
     <row r="15" spans="2:17" ht="20.25" customHeight="1">
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="19"/>
     </row>
@@ -2013,16 +2642,16 @@
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
       <c r="O17" s="20"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
@@ -2050,15 +2679,15 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
       <c r="O19" s="18"/>
@@ -2088,20 +2717,20 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="38" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="19"/>
     </row>
@@ -2128,18 +2757,18 @@
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="19"/>
     </row>
@@ -2166,22 +2795,22 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="32" t="s">
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="38" t="s">
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="19"/>
     </row>
@@ -2210,6 +2839,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="F23:H23"/>
@@ -2218,24 +2865,6 @@
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="E17:N17"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:O8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2273,70 +2902,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="48" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="65"/>
+      <c r="K2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="65" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="25.5">
-      <c r="A3" s="40"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
@@ -2355,11 +2984,11 @@
       <c r="J3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
@@ -2428,385 +3057,397 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="44" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="47" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="57" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="71"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="47" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="83"/>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="43" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="43" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="47" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57" t="s">
+      <c r="G11" s="68"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="47" t="s">
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="47" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="47" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="75"/>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
     </row>
     <row r="15" spans="1:17" ht="39.950000000000003" customHeight="1">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48" t="s">
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="43" t="s">
+      <c r="J15" s="92"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="67" t="s">
+      <c r="M15" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="43" t="s">
+      <c r="N15" s="71"/>
+      <c r="O15" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="43" t="s">
+      <c r="P15" s="69" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1">
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43" t="s">
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43" t="s">
+      <c r="H16" s="69"/>
+      <c r="I16" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="43"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:M4"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="E3:P3"/>
@@ -2823,31 +3464,19 @@
     <mergeCell ref="N9:P9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B11:E12"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2889,357 +3518,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="50.1" customHeight="1">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="71" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71" t="s">
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="70" t="s">
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71" t="s">
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71" t="s">
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71" t="s">
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71" t="s">
+      <c r="F9" s="97"/>
+      <c r="G9" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71" t="s">
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71" t="s">
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="71"/>
+      <c r="P9" s="97"/>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75" t="s">
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75" t="s">
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75" t="s">
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75" t="s">
+      <c r="G16" s="95"/>
+      <c r="H16" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75" t="s">
+      <c r="I16" s="95"/>
+      <c r="J16" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75" t="s">
+      <c r="K16" s="95"/>
+      <c r="L16" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75" t="s">
+      <c r="M16" s="95"/>
+      <c r="N16" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
     </row>
     <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
       <c r="P17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="A14:P14"/>
     <mergeCell ref="P15:P16"/>
     <mergeCell ref="K10:N13"/>
@@ -3256,44 +3923,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3303,4 +3932,724 @@
     <brk id="16" max="16" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="3" width="2.125" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="6" width="2.125" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="6.625" customWidth="1"/>
+    <col min="11" max="11" width="6.125" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.95" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" ht="9" customHeight="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" ht="12" customHeight="1">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="104"/>
+      <c r="D6" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="110"/>
+      <c r="G6" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="110"/>
+      <c r="L6" s="114"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="115"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1">
+      <c r="A8" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="21" customHeight="1">
+      <c r="A9" s="116"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="115"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.95" customHeight="1">
+      <c r="A10" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="117"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.95" customHeight="1">
+      <c r="A11" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="117"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.95" customHeight="1">
+      <c r="A12" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="122"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.95" customHeight="1">
+      <c r="A13" s="116"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="126"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.95" customHeight="1">
+      <c r="A14" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="122"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.95" customHeight="1">
+      <c r="A15" s="116"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="126"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.95" customHeight="1">
+      <c r="A16" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.95" customHeight="1">
+      <c r="A17" s="116"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="126"/>
+    </row>
+    <row r="18" spans="1:12" ht="20.45" customHeight="1">
+      <c r="A18" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="111"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="115"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.45" customHeight="1">
+      <c r="A19" s="116"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="115"/>
+    </row>
+    <row r="20" spans="1:12" ht="12" customHeight="1">
+      <c r="A20" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="117"/>
+    </row>
+    <row r="21" spans="1:12" ht="12" customHeight="1">
+      <c r="A21" s="116"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="117"/>
+    </row>
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="43"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="48"/>
+    </row>
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="48"/>
+    </row>
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="48"/>
+    </row>
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="48"/>
+    </row>
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="48"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="48"/>
+    </row>
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="48"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="36"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="52"/>
+    </row>
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="117"/>
+    </row>
+    <row r="32" spans="1:12" ht="6" customHeight="1">
+      <c r="A32" s="116"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="115"/>
+    </row>
+    <row r="33" spans="1:12" ht="21.95" customHeight="1">
+      <c r="A33" s="116"/>
+      <c r="B33" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="111"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="115"/>
+    </row>
+    <row r="34" spans="1:12" ht="21.95" customHeight="1">
+      <c r="A34" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="115"/>
+    </row>
+    <row r="35" spans="1:12" ht="21.95" customHeight="1">
+      <c r="A35" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="115"/>
+    </row>
+    <row r="36" spans="1:12" ht="21.95" customHeight="1">
+      <c r="A36" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="115"/>
+    </row>
+    <row r="37" spans="1:12" ht="21.95" customHeight="1">
+      <c r="A37" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="128"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="129"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:G32"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="A20:G21"/>
+    <mergeCell ref="H20:L21"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:H9"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>